--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,17 +424,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>W1-882337-08-5.PASS.PASS3.PK.07.06.2023-2</t>
+          <t>Wi1-392-35523-0.PASS.PASS9.PK.13.07.2023-3</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Olivia Riyanti</t>
+          <t>opt0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>SUTRIYAH</t>
+          <t>Jais Maryadi</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MIAH</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Jambi</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>04.07.2023</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>#check1 .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>#check9 .el-checkbox__inner</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,32 +424,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi1-392-35523-0.PASS.PASS9.PK.13.07.2023-3</t>
+          <t>Wi1-959104-23-3.PASS.PASS2.PK.25.08.2023-5</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>opt0</t>
+          <t>opt4</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Jais Maryadi</t>
+          <t>Tgk. Jaeman Samosir</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MIAH</t>
+          <t>WARITI</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Jambi</t>
+          <t>Pematangsiantar</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>04.07.2023</t>
+          <t>15.08.2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -460,6 +460,16 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>#check9 .el-checkbox__inner</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sed odit id ab explicabo inventore doloremque. Iste laborum dolore laboriosam culpa tenetur quod.</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -424,17 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi1-959104-23-3.PASS.PASS2.PK.25.08.2023-5</t>
+          <t>Wi0-7955-9631-6.PASS.PASS1.PK.29.08.2023-1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>opt4</t>
+          <t>opt6</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Tgk. Jaeman Samosir</t>
+          <t>R. Laila Damanik, S.E.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -444,12 +444,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Pematangsiantar</t>
+          <t>Malang</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>15.08.2023</t>
+          <t>22.08.2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>#check9 .el-checkbox__inner</t>
+          <t>#check6 .el-checkbox__inner</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -469,7 +469,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Sed odit id ab explicabo inventore doloremque. Iste laborum dolore laboriosam culpa tenetur quod.</t>
+          <t>Eligendi repellat rerum sit tenetur modi cumque. Ducimus perferendis earum quam velit in aliquid.</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -424,32 +424,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi0-7955-9631-6.PASS.PASS1.PK.29.08.2023-1</t>
+          <t>Wi1-72348-759-7.PASS.PASS1.PK.16.10.2023-1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>opt6</t>
+          <t>opt0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>R. Laila Damanik, S.E.</t>
+          <t>Tgk. Luis Suwarno</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>WARITI</t>
+          <t>MIAH</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Malang</t>
+          <t>Sungai Penuh</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>22.08.2023</t>
+          <t>16.09.2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -459,17 +459,17 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>#check6 .el-checkbox__inner</t>
+          <t>#check9 .el-checkbox__inner</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Eligendi repellat rerum sit tenetur modi cumque. Ducimus perferendis earum quam velit in aliquid.</t>
+          <t>Vero necessitatibus consectetur sint impedit quo aliquid. Modi similique ullam sit saepe cum dicta. Nulla exercitationem corrupti laboriosam.</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi1-72348-759-7.PASS.PASS1.PK.16.10.2023-1</t>
+          <t>Wi1-294-15126-6.PASS.PASS6.PK.17.10.2023-1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>opt0</t>
+          <t>opt2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Tgk. Luis Suwarno</t>
+          <t>Gilda Hutapea, S.I.Kom</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>MIAH</t>
+          <t>SUKUP</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Sungai Penuh</t>
+          <t>Sabang</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>21.09.2023</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>#check1 .el-checkbox__inner</t>
+          <t>#check0 .el-checkbox__inner</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -469,7 +469,8 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Vero necessitatibus consectetur sint impedit quo aliquid. Modi similique ullam sit saepe cum dicta. Nulla exercitationem corrupti laboriosam.</t>
+          <t>Quisquam expedita iusto quasi excepturi. Laudantium ducimus quam nulla repellat.
+Necessitatibus quis sit suscipit dolorum.</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,53 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi1-294-15126-6.PASS.PASS6.PK.17.10.2023-1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>opt2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Gilda Hutapea, S.I.Kom</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>SUKUP</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Sabang</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>21.09.2023</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>#check0 .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>#check9 .el-checkbox__inner</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Quisquam expedita iusto quasi excepturi. Laudantium ducimus quam nulla repellat.
-Necessitatibus quis sit suscipit dolorum.</t>
+          <t>Wi0-538-94222-3.PASS.PASS7.PK.16.11.2023-4</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi0-538-94222-3.PASS.PASS7.PK.16.11.2023-4</t>
+          <t>Wi1-4272-7051-1.PASS.PASS6.PK.24.11.2023-5</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi1-4272-7051-1.PASS.PASS6.PK.24.11.2023-5</t>
+          <t>Wi0-15-334477-6.PASS.PASS1.PK.01.12.2023-6</t>
         </is>
       </c>
     </row>

--- a/SDP/Filexel/fakersppn.xlsx
+++ b/SDP/Filexel/fakersppn.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Wi0-15-334477-6.PASS.PASS1.PK.01.12.2023-6</t>
+          <t>Wi1-63241-089-3.PASS.PASS6.PK.21.12.2023-1</t>
         </is>
       </c>
     </row>
